--- a/CaseStudy.xlsx
+++ b/CaseStudy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d18ab4ce63646fc5/Documenten/TU Delft/Thesis/Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="120" documentId="8_{1013C88C-00DD-4814-A3C9-E3D6940CD884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25AE5D2F-3A97-4C04-B691-3290811A1CDD}"/>
+  <xr:revisionPtr revIDLastSave="186" documentId="8_{1013C88C-00DD-4814-A3C9-E3D6940CD884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{019B3B1E-5C1E-4625-B7A4-6F36B1CB2344}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{CB22686C-94B4-4086-95D7-C7D3E84D8B35}"/>
+    <workbookView xWindow="3465" yWindow="1635" windowWidth="28800" windowHeight="15195" xr2:uid="{CB22686C-94B4-4086-95D7-C7D3E84D8B35}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="23">
   <si>
     <t>gradient</t>
   </si>
@@ -44,9 +44,6 @@
     <t>finite diff</t>
   </si>
   <si>
-    <t>PSO/GA</t>
-  </si>
-  <si>
     <t>Method</t>
   </si>
   <si>
@@ -56,40 +53,58 @@
     <t>plot</t>
   </si>
   <si>
+    <t>contour</t>
+  </si>
+  <si>
+    <t>f_min</t>
+  </si>
+  <si>
+    <t>x_min</t>
+  </si>
+  <si>
+    <t># eval</t>
+  </si>
+  <si>
+    <t>opt time</t>
+  </si>
+  <si>
+    <t>grid time</t>
+  </si>
+  <si>
+    <t>Up threshold</t>
+  </si>
+  <si>
+    <t>Down threshold</t>
+  </si>
+  <si>
+    <t>Down smoothing</t>
+  </si>
+  <si>
+    <t>opt time avg</t>
+  </si>
+  <si>
+    <t>total time</t>
+  </si>
+  <si>
+    <t>Optimizer</t>
+  </si>
+  <si>
+    <t>BFGS</t>
+  </si>
+  <si>
+    <t>Newton-CG</t>
+  </si>
+  <si>
+    <t>Jac</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>contour</t>
-  </si>
-  <si>
-    <t>f_min</t>
-  </si>
-  <si>
-    <t>x_min</t>
-  </si>
-  <si>
-    <t># eval</t>
-  </si>
-  <si>
-    <t>opt time</t>
-  </si>
-  <si>
-    <t>grid time</t>
-  </si>
-  <si>
-    <t>Up threshold</t>
-  </si>
-  <si>
-    <t>Down threshold</t>
-  </si>
-  <si>
-    <t>Down smoothing</t>
-  </si>
-  <si>
-    <t>opt time avg</t>
-  </si>
-  <si>
-    <t>total time</t>
   </si>
 </sst>
 </file>
@@ -134,9 +149,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,326 +491,400 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E6744E4-F02B-42D4-B63C-727DF25A726A}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="16.6328125" customWidth="1"/>
-    <col min="6" max="6" width="12.90625" customWidth="1"/>
-    <col min="8" max="9" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="7" width="12.85546875" customWidth="1"/>
+    <col min="9" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="O1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>45</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>60</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>90</v>
+      </c>
+      <c r="C7" s="1">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1.2</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1.5</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>30</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>45</v>
-      </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>60</v>
-      </c>
-      <c r="C7">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1">
-        <v>90</v>
-      </c>
-      <c r="C8" s="1">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>10</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
+      <c r="F11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
         <v>20</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
         <v>5</v>
       </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>10</v>
-      </c>
-      <c r="D15">
-        <v>10</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1">
+        <v>20</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -805,10 +895,62 @@
         <v>10</v>
       </c>
       <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
         <v>20</v>
       </c>
-      <c r="E16">
-        <v>1</v>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
